--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -593,10 +605,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -640,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -686,28 +698,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1027,10 +1039,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1074,28 +1086,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1120,28 +1132,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1287,10 +1299,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1334,28 +1346,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1380,28 +1392,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1576,10 +1588,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1623,28 +1635,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1669,28 +1681,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1836,10 +1848,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1883,28 +1895,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1929,28 +1941,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2154,10 +2166,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2201,28 +2213,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2247,28 +2259,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2501,10 +2513,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="J82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2548,28 +2560,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2594,28 +2606,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2877,10 +2889,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2924,28 +2936,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2970,28 +2982,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3253,10 +3265,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3300,28 +3312,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3346,28 +3358,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3600,10 +3612,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="J120" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3647,28 +3659,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3693,28 +3705,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4063,10 +4075,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="J136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4110,28 +4122,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4156,28 +4168,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4410,10 +4422,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="J148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4457,28 +4469,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4503,28 +4515,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4815,10 +4827,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
+      <c r="J162" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K162" s="2" t="s">
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4862,28 +4874,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4908,28 +4920,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5046,10 +5058,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
+      <c r="J170" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K170" s="2" t="s">
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5093,28 +5105,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5139,28 +5151,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5219,10 +5231,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
+      <c r="J176" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K176" s="2" t="s">
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -605,10 +653,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -652,28 +700,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="4">
+      <c r="A18" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="C18" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="4">
+      <c r="D18" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -698,28 +746,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="4">
+      <c r="I20" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1039,10 +1087,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1086,28 +1134,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="4">
+      <c r="A33" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="4">
+      <c r="B33" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="4">
+      <c r="C33" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="4">
+      <c r="D33" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="4">
+      <c r="E33" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="4">
+      <c r="F33" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="4">
+      <c r="G33" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="4">
+      <c r="H33" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1132,28 +1180,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="4">
+      <c r="C35" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="4">
+      <c r="D35" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="4">
+      <c r="I35" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1299,10 +1347,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1346,28 +1394,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="4">
+      <c r="A42" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C42" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="4">
+      <c r="D42" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1392,28 +1440,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="4">
+      <c r="C44" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="D44" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="4">
+      <c r="I44" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1588,10 +1636,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1635,28 +1683,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="4">
+      <c r="A52" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="4">
+      <c r="C52" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D52" t="s" s="4">
+      <c r="D52" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="4">
+      <c r="G52" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="4">
+      <c r="H52" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1681,28 +1729,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="4">
+      <c r="B54" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="4">
+      <c r="C54" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="4">
+      <c r="D54" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="4">
+      <c r="E54" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="4">
+      <c r="F54" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="4">
+      <c r="G54" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="4">
+      <c r="H54" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="4">
+      <c r="I54" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1848,10 +1896,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1895,28 +1943,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="4">
+      <c r="A61" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="D61" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1941,28 +1989,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="D63" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="4">
+      <c r="G63" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="4">
+      <c r="H63" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="4">
+      <c r="I63" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2166,10 +2214,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J70" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="K70" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2213,28 +2261,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="4">
+      <c r="A72" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="4">
+      <c r="B72" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="4">
+      <c r="C72" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D72" t="s" s="4">
+      <c r="D72" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="4">
+      <c r="E72" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="4">
+      <c r="F72" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="4">
+      <c r="G72" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="4">
+      <c r="H72" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2259,28 +2307,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="4">
+      <c r="B74" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="4">
+      <c r="C74" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="4">
+      <c r="D74" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="4">
+      <c r="E74" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="4">
+      <c r="F74" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="4">
+      <c r="G74" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="4">
+      <c r="H74" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="4">
+      <c r="I74" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2513,10 +2561,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="J82" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="K82" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2560,28 +2608,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="4">
+      <c r="A84" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="4">
+      <c r="C84" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="4">
+      <c r="D84" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="4">
+      <c r="G84" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="4">
+      <c r="H84" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2606,28 +2654,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="4">
+      <c r="C86" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="4">
+      <c r="D86" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="4">
+      <c r="I86" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2889,10 +2937,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="4" t="s">
+      <c r="J95" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="4" t="s">
+      <c r="K95" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2936,28 +2984,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="4">
+      <c r="A97" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="4">
+      <c r="C97" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="4">
+      <c r="D97" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2982,28 +3030,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="4">
+      <c r="C99" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="4">
+      <c r="D99" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="4">
+      <c r="E99" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="4">
+      <c r="F99" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="4">
+      <c r="G99" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="4">
+      <c r="H99" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="4">
+      <c r="I99" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3265,10 +3313,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="4" t="s">
+      <c r="J108" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="4" t="s">
+      <c r="K108" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3312,28 +3360,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="4">
+      <c r="A110" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="4">
+      <c r="C110" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="4">
+      <c r="D110" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3358,28 +3406,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="4">
+      <c r="B112" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="4">
+      <c r="C112" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="4">
+      <c r="D112" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="4">
+      <c r="E112" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="4">
+      <c r="F112" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="4">
+      <c r="G112" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="4">
+      <c r="H112" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="4">
+      <c r="I112" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3612,10 +3660,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="4" t="s">
+      <c r="J120" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="4" t="s">
+      <c r="K120" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3659,28 +3707,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="4">
+      <c r="A122" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="4">
+      <c r="B122" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="4">
+      <c r="C122" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="4">
+      <c r="D122" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="4">
+      <c r="E122" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="4">
+      <c r="F122" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="4">
+      <c r="G122" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="4">
+      <c r="H122" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3705,28 +3753,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="4">
+      <c r="C124" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="4">
+      <c r="D124" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="4">
+      <c r="E124" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="4">
+      <c r="F124" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="4">
+      <c r="G124" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="4">
+      <c r="H124" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="4">
+      <c r="I124" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4075,10 +4123,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="4" t="s">
+      <c r="J136" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="4" t="s">
+      <c r="K136" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4122,28 +4170,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="4">
+      <c r="A138" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="4">
+      <c r="C138" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="4">
+      <c r="D138" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4168,28 +4216,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="4">
+      <c r="C140" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="4">
+      <c r="D140" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="4">
+      <c r="I140" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4422,10 +4470,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="4" t="s">
+      <c r="J148" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="4" t="s">
+      <c r="K148" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4469,28 +4517,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="4">
+      <c r="A150" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="4">
+      <c r="B150" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="4">
+      <c r="C150" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="4">
+      <c r="D150" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="4">
+      <c r="E150" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="4">
+      <c r="F150" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="4">
+      <c r="G150" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="4">
+      <c r="H150" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4515,28 +4563,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="4">
+      <c r="C152" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="4">
+      <c r="D152" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="4">
+      <c r="I152" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4827,10 +4875,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="4" t="s">
+      <c r="J162" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K162" s="4" t="s">
+      <c r="K162" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4874,28 +4922,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="4">
+      <c r="A164" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="4">
+      <c r="C164" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D164" t="s" s="4">
+      <c r="D164" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4920,28 +4968,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="4">
+      <c r="C166" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="4">
+      <c r="D166" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="4">
+      <c r="I166" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5058,10 +5106,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="4" t="s">
+      <c r="J170" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K170" s="4" t="s">
+      <c r="K170" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5105,28 +5153,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="4">
+      <c r="A172" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5151,28 +5199,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="4">
+      <c r="C174" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="4">
+      <c r="D174" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="4">
+      <c r="I174" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5231,10 +5279,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="4" t="s">
+      <c r="J176" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K176" s="4" t="s">
+      <c r="K176" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -653,10 +671,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -700,28 +718,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="12">
+      <c r="D18" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -746,28 +764,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="12">
+      <c r="I20" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1087,10 +1105,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1134,28 +1152,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="12">
+      <c r="A33" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="12">
+      <c r="B33" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="12">
+      <c r="C33" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="12">
+      <c r="D33" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="12">
+      <c r="E33" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="12">
+      <c r="F33" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="12">
+      <c r="G33" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="12">
+      <c r="H33" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1180,28 +1198,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="12">
+      <c r="C35" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="12">
+      <c r="D35" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="12">
+      <c r="I35" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1347,10 +1365,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="K40" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1394,28 +1412,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="12">
+      <c r="A42" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="12">
+      <c r="C42" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="12">
+      <c r="D42" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1440,28 +1458,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="12">
+      <c r="C44" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="12">
+      <c r="D44" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="12">
+      <c r="I44" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1636,10 +1654,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="K50" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1683,28 +1701,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="12">
+      <c r="A52" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="12">
+      <c r="B52" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="12">
+      <c r="C52" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D52" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E52" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="12">
+      <c r="F52" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="12">
+      <c r="G52" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="12">
+      <c r="H52" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1729,28 +1747,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="12">
+      <c r="B54" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="12">
+      <c r="C54" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="12">
+      <c r="D54" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="12">
+      <c r="E54" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="12">
+      <c r="F54" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="12">
+      <c r="G54" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="12">
+      <c r="H54" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="12">
+      <c r="I54" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1896,10 +1914,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="12" t="s">
+      <c r="K59" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1943,28 +1961,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="12">
+      <c r="A61" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="12">
+      <c r="C61" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="12">
+      <c r="D61" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1989,28 +2007,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="12">
+      <c r="B63" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="12">
+      <c r="C63" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="12">
+      <c r="D63" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="12">
+      <c r="F63" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="12">
+      <c r="G63" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="12">
+      <c r="I63" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2214,10 +2232,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="12" t="s">
+      <c r="J70" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="12" t="s">
+      <c r="K70" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2261,28 +2279,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="12">
+      <c r="A72" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="12">
+      <c r="B72" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="12">
+      <c r="C72" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D72" t="s" s="12">
+      <c r="D72" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="12">
+      <c r="E72" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="12">
+      <c r="F72" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="12">
+      <c r="G72" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="12">
+      <c r="H72" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2307,28 +2325,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="12">
+      <c r="B74" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="12">
+      <c r="C74" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="12">
+      <c r="D74" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="12">
+      <c r="E74" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="12">
+      <c r="F74" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="12">
+      <c r="G74" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="12">
+      <c r="H74" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="12">
+      <c r="I74" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2561,10 +2579,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="12" t="s">
+      <c r="J82" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="12" t="s">
+      <c r="K82" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2608,28 +2626,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="12">
+      <c r="A84" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="12">
+      <c r="B84" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="12">
+      <c r="C84" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="12">
+      <c r="D84" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="12">
+      <c r="E84" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="12">
+      <c r="F84" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="12">
+      <c r="G84" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="12">
+      <c r="H84" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2654,28 +2672,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="12">
+      <c r="C86" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="12">
+      <c r="D86" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="12">
+      <c r="I86" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2937,10 +2955,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="12" t="s">
+      <c r="J95" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="12" t="s">
+      <c r="K95" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2984,28 +3002,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="12">
+      <c r="A97" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="12">
+      <c r="C97" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="12">
+      <c r="D97" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3030,28 +3048,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="12">
+      <c r="C99" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="12">
+      <c r="D99" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="12">
+      <c r="E99" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="12">
+      <c r="F99" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="12">
+      <c r="G99" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="12">
+      <c r="H99" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="12">
+      <c r="I99" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3313,10 +3331,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="12" t="s">
+      <c r="J108" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="12" t="s">
+      <c r="K108" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3360,28 +3378,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="12">
+      <c r="A110" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="12">
+      <c r="C110" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="12">
+      <c r="D110" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3406,28 +3424,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="12">
+      <c r="B112" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="12">
+      <c r="C112" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="12">
+      <c r="D112" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="12">
+      <c r="E112" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="12">
+      <c r="F112" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="12">
+      <c r="G112" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="12">
+      <c r="H112" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="12">
+      <c r="I112" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3660,10 +3678,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="12" t="s">
+      <c r="J120" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="12" t="s">
+      <c r="K120" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3707,28 +3725,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="12">
+      <c r="A122" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="12">
+      <c r="B122" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="12">
+      <c r="C122" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="12">
+      <c r="D122" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="12">
+      <c r="E122" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="12">
+      <c r="F122" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="12">
+      <c r="G122" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="12">
+      <c r="H122" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3753,28 +3771,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="12">
+      <c r="B124" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="12">
+      <c r="C124" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="12">
+      <c r="D124" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="12">
+      <c r="E124" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="12">
+      <c r="F124" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="12">
+      <c r="G124" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="12">
+      <c r="H124" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="12">
+      <c r="I124" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4123,10 +4141,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="12" t="s">
+      <c r="J136" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="12" t="s">
+      <c r="K136" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4170,28 +4188,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="12">
+      <c r="A138" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="12">
+      <c r="C138" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="12">
+      <c r="D138" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4216,28 +4234,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="12">
+      <c r="C140" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="12">
+      <c r="D140" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="12">
+      <c r="I140" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4470,10 +4488,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="12" t="s">
+      <c r="J148" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="12" t="s">
+      <c r="K148" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4517,28 +4535,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="12">
+      <c r="A150" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="12">
+      <c r="B150" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="12">
+      <c r="C150" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="12">
+      <c r="D150" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="12">
+      <c r="E150" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="12">
+      <c r="F150" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="12">
+      <c r="G150" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="12">
+      <c r="H150" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4563,28 +4581,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="12">
+      <c r="C152" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="12">
+      <c r="D152" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="12">
+      <c r="I152" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4875,10 +4893,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="12" t="s">
+      <c r="J162" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K162" s="12" t="s">
+      <c r="K162" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4922,28 +4940,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="12">
+      <c r="A164" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="12">
+      <c r="C164" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D164" t="s" s="12">
+      <c r="D164" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4968,28 +4986,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="12">
+      <c r="C166" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="12">
+      <c r="D166" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="12">
+      <c r="I166" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5106,10 +5124,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="12" t="s">
+      <c r="J170" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K170" s="12" t="s">
+      <c r="K170" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5153,28 +5171,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="12">
+      <c r="A172" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5199,28 +5217,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="12">
+      <c r="C174" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="12">
+      <c r="D174" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="12">
+      <c r="I174" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5279,10 +5297,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="12" t="s">
+      <c r="J176" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K176" s="12" t="s">
+      <c r="K176" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
